--- a/biology/Botanique/Hypselodelphys_violacea/Hypselodelphys_violacea.xlsx
+++ b/biology/Botanique/Hypselodelphys_violacea/Hypselodelphys_violacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypselodelphys violacea est une espèce de plantes de la famille des Marantaceae et du genre Hypselodelphys, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une liane grimpante ligneuse, de plusieurs mètres de long, à rhizome et pousses ramifiées évoquant le bambou. Les fleurs sont blanches, roses ou violacées, d'où son nom. Les fruits triangulaires, d'environ 5 cm de diamètre, contiennent des graines noires sans arille[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une liane grimpante ligneuse, de plusieurs mètres de long, à rhizome et pousses ramifiées évoquant le bambou. Les fleurs sont blanches, roses ou violacées, d'où son nom. Les fruits triangulaires, d'environ 5 cm de diamètre, contiennent des graines noires sans arille,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, de la Guinée et la Sierra Leone jusqu'au Cameroun, et de là vers le sud jusqu'en république démocratique du Congo et en Angola[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, de la Guinée et la Sierra Leone jusqu'au Cameroun, et de là vers le sud jusqu'en république démocratique du Congo et en Angola.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les recrus secondaires et en lisière de forêt, dans les endroits humides[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les recrus secondaires et en lisière de forêt, dans les endroits humides,.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On se sert des tiges fendues pour confectionner des paniers et des nattes. Au Gabon on utilise les tiges pour faire des pièges, au Ghana pour faire des sifflets[2].
-On consomme les fruits en Sierra Leone, on mastique les graines au Nigeria[2].
-En médecine traditionnelle, on utilise parfois les fruits séchés et moulus pour préparer des émétiques ou des antidotes en cas de morsure de serpent[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On se sert des tiges fendues pour confectionner des paniers et des nattes. Au Gabon on utilise les tiges pour faire des pièges, au Ghana pour faire des sifflets.
+On consomme les fruits en Sierra Leone, on mastique les graines au Nigeria.
+En médecine traditionnelle, on utilise parfois les fruits séchés et moulus pour préparer des émétiques ou des antidotes en cas de morsure de serpent.
 </t>
         </is>
       </c>
